--- a/Resources/DataProvider.xlsx
+++ b/Resources/DataProvider.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="android" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="ios" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,14 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
   <si>
     <t>platform</t>
   </si>
   <si>
-    <t>deviceName</t>
-  </si>
-  <si>
     <t>appPath</t>
   </si>
   <si>
@@ -28,23 +32,68 @@
     <t>platformVersion</t>
   </si>
   <si>
+    <t>fullReset</t>
+  </si>
+  <si>
+    <t>noReset</t>
+  </si>
+  <si>
+    <t>appiumURL</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>iphone6</t>
+  </si>
+  <si>
     <t>Android</t>
   </si>
   <si>
-    <t>emulator-5554</t>
+    <t>ios</t>
   </si>
   <si>
     <t>/Users/prashantmohite/Prashant/APK/Android.apk</t>
   </si>
   <si>
     <t>Espresso</t>
+  </si>
+  <si>
+    <t>XCUITest</t>
+  </si>
+  <si>
+    <t>395E0EC4-006B-4127-A17D-08F37AB8CF86</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4723/wd/hub</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>emulator-5897</t>
+  </si>
+  <si>
+    <t>iphone7</t>
+  </si>
+  <si>
+    <t>FA929241-5217-4917-84B6-71206A3BBD59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://127.0.0.1:4723/wd/hub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -52,15 +101,26 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF424242"/>
     </font>
     <font>
       <b/>
+    </font>
+    <font/>
+    <font>
       <color rgb="FF424242"/>
     </font>
     <font>
-      <color rgb="FF424242"/>
-    </font>
-    <font/>
+      <color rgb="FF454545"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -100,11 +160,24 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -115,6 +188,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -132,37 +209,220 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="9.14"/>
+    <col customWidth="1" min="7" max="7" width="21.86"/>
+    <col customWidth="1" min="8" max="8" width="21.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>9.0</v>
-      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>